--- a/library/abbreviation.xlsx
+++ b/library/abbreviation.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GraphRAG\lib\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\NeoGRAG\library\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20801647-3C11-4FAB-A645-04D0A8F026F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DDCD907-2E5F-4B47-BD75-53E0BDA26778}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" xr2:uid="{7DC9CFCB-2F20-244A-AA77-A9B5EFB544E6}"/>
+    <workbookView xWindow="5960" yWindow="20" windowWidth="13310" windowHeight="13660" xr2:uid="{7DC9CFCB-2F20-244A-AA77-A9B5EFB544E6}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -193,12 +193,6 @@
     <t>phục vụ sinh viên</t>
   </si>
   <si>
-    <t>Abrreviation</t>
-  </si>
-  <si>
-    <t>Full</t>
-  </si>
-  <si>
     <t>tt . pvsv</t>
   </si>
   <si>
@@ -305,6 +299,12 @@
   </si>
   <si>
     <t>báo cáo</t>
+  </si>
+  <si>
+    <t>abbreviation</t>
+  </si>
+  <si>
+    <t>full</t>
   </si>
 </sst>
 </file>
@@ -658,8 +658,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F99DADB-5D27-6D4D-93EB-9727F161CE6F}">
   <dimension ref="A1:B46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
-      <selection activeCell="E39" sqref="E39"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="B53" sqref="B53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -670,10 +670,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>52</v>
+        <v>88</v>
       </c>
       <c r="B1" t="s">
-        <v>53</v>
+        <v>89</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
@@ -694,10 +694,10 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B4" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
@@ -894,98 +894,98 @@
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B29" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B30" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B31" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B32" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B33" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B34" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B35" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B36" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B37" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B38" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B39" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B40" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.35">
@@ -998,45 +998,46 @@
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B42" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B43" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B44" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B45" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B46" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>